--- a/1st_round_screening/ACE/iteration_4/data/unlabeled_processed_4.xlsx
+++ b/1st_round_screening/ACE/iteration_4/data/unlabeled_processed_4.xlsx
@@ -545,10 +545,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,10 +598,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -651,10 +651,10 @@
         <v>66</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>67</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -810,10 +810,10 @@
         <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -863,10 +863,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,10 +969,10 @@
         <v>72</v>
       </c>
       <c r="B10" t="n">
-        <v>0.98</v>
+        <v>0.585</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>73</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>74</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.734</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         <v>75</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,10 +1181,10 @@
         <v>76</v>
       </c>
       <c r="B14" t="n">
-        <v>0.862</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138</v>
+        <v>0.433</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
         <v>77</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1287,10 +1287,10 @@
         <v>78</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
